--- a/server/simple.xlsx
+++ b/server/simple.xlsx
@@ -11,39 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>StudentName</t>
   </si>
   <si>
-    <t>SWERC 2022-2023 - Online Mirror (Unrated, ICPC Rules, Teams Preferred)</t>
-  </si>
-  <si>
-    <t>Codeforces Round (Div. 2)</t>
-  </si>
-  <si>
-    <t>Educational Codeforces Round 144 (Rated for Div. 2)</t>
-  </si>
-  <si>
-    <t>Starters 78</t>
+    <t>International Coding League, 2023</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>yashwanth</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>yash</t>
-  </si>
-  <si>
-    <t>yash3</t>
-  </si>
-  <si>
-    <t>ironman</t>
   </si>
 </sst>
 </file>
@@ -420,131 +405,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="70" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/server/simple.xlsx
+++ b/server/simple.xlsx
@@ -16,19 +16,19 @@
     <t>StudentName</t>
   </si>
   <si>
-    <t>International Coding League, 2023</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Clash Wildcard 2023</t>
+  </si>
+  <si>
+    <t>Toyota Programming Contest 2023 Spring Final</t>
+  </si>
+  <si>
+    <t>yashwanth kumar D</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>yashwanth</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -405,34 +405,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
